--- a/Round 2/Data/Figure 2 draft calc.xlsx
+++ b/Round 2/Data/Figure 2 draft calc.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwonk\Guided Project\KNIME_Project\Round 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwonk\Guided Project\KNIME_Project\Round 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF02D1C6-C924-422F-8B84-45BF8BD9521B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8969580B-A1F9-4499-B8C6-A6F2C1ADC867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1764823A-5865-40C9-81F7-4474C8D7E7CB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{1764823A-5865-40C9-81F7-4474C8D7E7CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -231,6 +231,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:strRef>
               <c:f>Sheet1!$B$3:$B$27</c:f>
@@ -2758,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B69B07B-91A9-41B0-9ECE-11D05A4D8D7B}">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
